--- a/画面設計/【画面設計】10_ユーザ管理画面(トップ).xlsx
+++ b/画面設計/【画面設計】10_ユーザ管理画面(トップ).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>ユーザログイン後に、表示されるユーザ管理画面。
+各タブをクリックすることで各管理画面を切り替え表示すること。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -452,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2168,7 +2172,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -3084,7 +3088,9 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="36"/>
+      <c r="B32" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3192,7 +3198,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3222,13 +3228,13 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3368,7 +3374,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3398,10 +3404,10 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="6"/>
@@ -3598,14 +3604,14 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -3630,14 +3636,14 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -3662,30 +3668,30 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52" s="39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -3762,14 +3768,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55" s="57"/>
       <c r="I55" s="57"/>
@@ -3794,30 +3800,30 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="58"/>
       <c r="B56" s="59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="58"/>
       <c r="G56" s="59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56" s="59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I56" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J56" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K56" s="59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
@@ -3978,30 +3984,30 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="58"/>
       <c r="B62" s="59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="58"/>
       <c r="G62" s="59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62" s="59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I62" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J62" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K62" s="59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -4078,14 +4084,14 @@
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="25"/>
       <c r="B65" s="57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65" s="57"/>
       <c r="D65" s="57"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
       <c r="G65" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65" s="57"/>
       <c r="I65" s="57"/>
@@ -4110,30 +4116,30 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="58"/>
       <c r="G66" s="59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66" s="59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I66" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J66" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K66" s="59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
@@ -30065,7 +30071,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="72"/>
       <c r="B4" s="72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -30093,10 +30099,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="72"/>
